--- a/results/mp/logistic/corona/confidence/168/desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
@@ -64,106 +67,127 @@
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -521,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.839041095890411</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -740,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -758,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9112271540469974</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
         <v>27</v>
@@ -808,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5767195767195767</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8802816901408451</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5368217054263565</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C9">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8773584905660378</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4576271186440678</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,116 +1014,188 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1972222222222222</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0.890625</v>
+      </c>
+      <c r="L11">
+        <v>114</v>
+      </c>
+      <c r="M11">
+        <v>114</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.3691275167785235</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>94</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L12">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="C14">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>263</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.8658536585365854</v>
+      </c>
+      <c r="L14">
         <v>71</v>
       </c>
-      <c r="D11">
+      <c r="M14">
         <v>71</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>289</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L11">
-        <v>31</v>
-      </c>
-      <c r="M11">
-        <v>31</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.8515625</v>
-      </c>
-      <c r="L12">
-        <v>109</v>
-      </c>
-      <c r="M12">
-        <v>109</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13">
-        <v>0.85</v>
-      </c>
-      <c r="L13">
-        <v>136</v>
-      </c>
-      <c r="M13">
-        <v>136</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1110,21 +1206,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.004862867146469559</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>0.49</v>
+      </c>
+      <c r="F15">
+        <v>0.51</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5116</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.85625</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8297872340425532</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.8205128205128205</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,12 +1360,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.8095238095238095</v>
@@ -1271,16 +1391,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7708333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.74</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.7382352941176471</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L24">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7196652719665272</v>
+        <v>0.725</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7006802721088435</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,24 +1565,24 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6914893617021277</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="L29">
         <v>44</v>
       </c>
-      <c r="K29">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="L29">
-        <v>42</v>
-      </c>
       <c r="M29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6142857142857143</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5842696629213483</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5490196078431373</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,47 +1698,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5205479452054794</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,7 +1750,111 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>0.02583333333333333</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37">
+        <v>0.01163227016885554</v>
+      </c>
+      <c r="L37">
+        <v>31</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>0.79</v>
+      </c>
+      <c r="O37">
+        <v>0.21</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38">
+        <v>0.005620232838217583</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>0.67</v>
+      </c>
+      <c r="O38">
+        <v>0.33</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4954</v>
       </c>
     </row>
   </sheetData>
